--- a/biology/Zoologie/Eleutherengona/Eleutherengona.xlsx
+++ b/biology/Zoologie/Eleutherengona/Eleutherengona.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Eleutherengona sont un infra-ordre d'acariens de l'ordre  des Trombidiformes.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des hypo-ordres, super-familles et familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Classification selon Zhang (d) et al., 2011[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Classification selon Zhang (d) et al., 2011 :
 hypo-ordre des Raphignathina Kethley, 1982
 super-famille des Cheyletoidea Leach, 1815
 famille des Cheyletidae Leach, 1815
@@ -599,7 +613,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Eleutherengona ont été décrits par le zoologiste néerlandais Anthonie Cornelis Oudemans en 1909.
 </t>
@@ -630,7 +646,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Oudemans, 1909 : « Über die bis jetzt genauer bekannten Thrombidium-larven und über eine neue Klassifikation der Prostigmata. » Tijdschrift voor Entomologie, vol. 52, p. 19-61 (texte intégral).</t>
         </is>
